--- a/evnt/eventapp/mediafiles/finaltable/FinalChecks_eventSlots.xlsx
+++ b/evnt/eventapp/mediafiles/finaltable/FinalChecks_eventSlots.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,7 +551,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>rio3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>priyanshu8</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>priyanshu8</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>priyanshu8</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -783,153 +783,21 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>09:11:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>priyanshu8</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>09:11:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>09:30:00</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>09:30:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>10:28:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>priyanshu8</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>10:28:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>10:45:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>10:45:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>13:20:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>priyanshu8_rio3</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>13:20:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>13:48:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>13:48:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>14:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
